--- a/非受控文档/需求规格说明阶段/SRS绩效统计.xlsx
+++ b/非受控文档/需求规格说明阶段/SRS绩效统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cc\Documents\WeChat Files\hello-cc-world\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\pbcls\非受控文档\需求规格说明阶段\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7339E848-4598-4A86-9A55-CDC8BACDFA0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4286F1-334A-426A-A1FC-EB09C9777B2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12756" xr2:uid="{A2358B88-8D65-4180-9508-A49D1C4EF965}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{A2358B88-8D65-4180-9508-A49D1C4EF965}"/>
   </bookViews>
   <sheets>
     <sheet name="组员" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>刘值成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>第十五周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈铉文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,6 +538,178 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AFFC-4932-94F4-4290BE7D7904}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>组员!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>陈铉文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>组员!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>第十周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第十一周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第十二周</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>第十三周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第十四周</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>第十五周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>组员!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>88.487500000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.462499999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.074999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.762499999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.600000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6B7-46E0-9051-0044A9E7399F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>组员!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>组员!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>第十周</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>第十一周</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>第十二周</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>第十三周</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>第十四周</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>第十五周</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>组员!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>91.657499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.782499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.885000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.064999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.162499999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.600000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2A7-4194-9AE4-9152DE0DD267}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2519,16 +2703,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126912</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431712</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2894,15 +3078,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB252AF-A566-4C10-8FE5-B1EE8F5C3499}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2915,8 +3102,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2932,8 +3125,15 @@
       <c r="E2">
         <v>91.9</v>
       </c>
+      <c r="F2" s="1">
+        <v>88.487500000000011</v>
+      </c>
+      <c r="G2" s="1">
+        <f>AVERAGE(B2:F2)</f>
+        <v>91.657499999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2949,8 +3149,15 @@
       <c r="E3">
         <v>92.1</v>
       </c>
+      <c r="F3" s="1">
+        <v>88.462499999999991</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(B3:F3)</f>
+        <v>90.782499999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2966,8 +3173,15 @@
       <c r="E4">
         <v>90.7</v>
       </c>
+      <c r="F4" s="1">
+        <v>88.375</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>89.885000000000005</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2983,8 +3197,15 @@
       <c r="E5">
         <v>90</v>
       </c>
+      <c r="F5" s="1">
+        <v>87.074999999999989</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>89.064999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3000,8 +3221,15 @@
       <c r="E6">
         <v>89.3</v>
       </c>
+      <c r="F6" s="1">
+        <v>87.762499999999989</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>89.162499999999994</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3016,12 +3244,49 @@
       </c>
       <c r="E7">
         <v>90.55</v>
+      </c>
+      <c r="F7" s="1">
+        <v>89.600000000000009</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>91.600000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <f>AVERAGE(B2:B7)</f>
+        <v>90.308333333333323</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>91.358333333333334</v>
+      </c>
+      <c r="D8" s="1">
+        <f>AVERAGE(D2:D7)</f>
+        <v>91.074999999999989</v>
+      </c>
+      <c r="E8" s="1">
+        <f>AVERAGE(E2:E7)</f>
+        <v>90.758333333333326</v>
+      </c>
+      <c r="F8" s="1">
+        <f>AVERAGE(F2:F7)</f>
+        <v>88.293749999999989</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>90.358750000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3030,12 +3295,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3049,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3070,7 +3335,7 @@
         <v>88.487500000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3091,7 +3356,7 @@
         <v>88.462499999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3112,7 +3377,7 @@
         <v>88.375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3133,7 +3398,7 @@
         <v>87.074999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +3419,7 @@
         <v>87.762499999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
